--- a/va_facility_data_2025-02-20/Huntingdon County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Huntingdon%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Huntingdon County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Huntingdon%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R2b6e08f959fa423284aac1cad9ba9063"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb4e0b5317a794fa6b45514ef1c6552d1"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra439b5e7ed1d44e1a679a235915fe532"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Red0fe28219ae49aca195b69b9810dc8f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R76fe2987f4d6415da866346cef0ea1ac"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R717eb798fdab4a3db909445cb523f4a7"/>
   </x:sheets>
 </x:workbook>
 </file>
